--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1880E110-AF1D-493C-91FD-5427D7E0E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFA9F8-09CC-48CD-8987-52965DB7DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -268,6 +268,13 @@
   </si>
   <si>
     <t>経理管理費用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラミネート費用</t>
+    <rPh sb="5" eb="7">
+      <t>ヒヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -408,6 +415,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,9 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,39 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -821,75 +828,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="18">
         <f ca="1">TODAY()</f>
-        <v>44987</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>45079</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -902,21 +909,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45018</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1">
+        <v>45109</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -927,31 +934,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -959,154 +966,158 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13">
+        <v>2620</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>31818</v>
+        <v>34438</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1114,88 +1125,62 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
         <f>IF(G32="","",G32*0.1)</f>
-        <v>3181.8</v>
+        <v>3443.8</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>34999.800000000003</v>
-      </c>
-      <c r="H36" s="18"/>
+        <v>37881.800000000003</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1212,6 +1197,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFA9F8-09CC-48CD-8987-52965DB7DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB13B05-267F-441A-986D-066070941D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB13B05-267F-441A-986D-066070941D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240D4A3-9BC7-4EF1-86D4-E54E2F972536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -429,54 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,60 +838,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
-        <f ca="1">TODAY()</f>
-        <v>45079</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="G3" s="6">
+        <v>45108</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -913,15 +912,15 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
-        <f ca="1">EDATE(G3,1)</f>
-        <v>45109</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
+        <f>EDATE(G3,1)</f>
+        <v>45139</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickTop="1">
       <c r="A13" t="s">
@@ -934,31 +933,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -966,158 +965,158 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13">
-        <v>2620</v>
+        <v>3834</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>34438</v>
+        <v>35652</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1125,62 +1124,88 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
         <f>IF(G32="","",G32*0.1)</f>
-        <v>3443.8</v>
+        <v>3565.2000000000003</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>37881.800000000003</v>
-      </c>
-      <c r="H36" s="12"/>
+        <v>39217.199999999997</v>
+      </c>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1197,32 +1222,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240D4A3-9BC7-4EF1-86D4-E54E2F972536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129CFA8-E4F2-403F-981E-569B4CD90B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -268,13 +268,6 @@
   </si>
   <si>
     <t>経理管理費用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラミネート費用</t>
-    <rPh sb="5" eb="7">
-      <t>ヒヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -415,6 +408,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,9 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,39 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,59 +831,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
-        <v>45108</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18">
+        <v>45139</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,15 +905,15 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f>EDATE(G3,1)</f>
-        <v>45139</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>45170</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickTop="1">
       <c r="A13" t="s">
@@ -933,31 +926,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -965,158 +958,154 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13">
-        <v>3834</v>
-      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>35652</v>
+        <v>31818</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1124,88 +1113,62 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
         <f>IF(G32="","",G32*0.1)</f>
-        <v>3565.2000000000003</v>
+        <v>3181.8</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>39217.199999999997</v>
-      </c>
-      <c r="H36" s="18"/>
+        <v>34999.800000000003</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1222,6 +1185,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129CFA8-E4F2-403F-981E-569B4CD90B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E5DC0-2BB6-4ED0-ADE2-CE4A75268DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -408,6 +408,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -422,54 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,73 +822,73 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="26.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
-        <v>45139</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="G3" s="6">
+        <v>45172</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:8" ht="18.5" thickBot="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" thickTop="1">
+    <row r="7" spans="1:8" ht="18.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -901,21 +901,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1">
+    <row r="12" spans="1:8" ht="18.5" thickBot="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <f>EDATE(G3,1)</f>
-        <v>45170</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" thickTop="1">
+        <v>45202</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.5" thickTop="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -926,31 +926,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -958,149 +958,149 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
@@ -1113,17 +1113,17 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
@@ -1133,42 +1133,68 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>34999.800000000003</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1185,32 +1211,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E5DC0-2BB6-4ED0-ADE2-CE4A75268DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE3664-010E-4BF3-AEE1-829C2AC83F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,6 +408,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,9 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,39 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +822,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -831,59 +831,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
-        <v>45172</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18">
+        <v>45200</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,15 +905,15 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f>EDATE(G3,1)</f>
-        <v>45202</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>45231</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1">
       <c r="A13" t="s">
@@ -926,31 +926,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -958,149 +958,149 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
@@ -1113,17 +1113,17 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
@@ -1133,68 +1133,42 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>34999.800000000003</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1211,6 +1185,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE3664-010E-4BF3-AEE1-829C2AC83F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F79ED1-E236-4481-913C-5A44464A0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -862,7 +862,8 @@
         <v>2</v>
       </c>
       <c r="G3" s="18">
-        <v>45200</v>
+        <f ca="1">TODAY()</f>
+        <v>45261</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -910,8 +911,8 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22">
-        <f>EDATE(G3,1)</f>
-        <v>45231</v>
+        <f ca="1">EDATE(G3,1)</f>
+        <v>45292</v>
       </c>
       <c r="H12" s="23"/>
     </row>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F79ED1-E236-4481-913C-5A44464A0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A2568-B8AD-4914-B4C4-918CF88862D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -270,6 +270,13 @@
     <t>経理管理費用</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>登録番号：T5120001226940</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +336,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -402,12 +415,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,53 +484,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,16 +509,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10488</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,8 +559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="1504950"/>
-          <a:ext cx="695325" cy="677238"/>
+          <a:off x="4956175" y="1441450"/>
+          <a:ext cx="669925" cy="645488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,7 +838,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -831,60 +847,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45261</v>
-      </c>
-      <c r="H3" s="19"/>
+        <v>45289</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,6 +910,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="F8" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>3</v>
@@ -906,15 +927,15 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45292</v>
-      </c>
-      <c r="H12" s="23"/>
+        <v>45320</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1">
       <c r="A13" t="s">
@@ -927,31 +948,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
         <v>31818</v>
       </c>
@@ -959,149 +980,149 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
@@ -1114,17 +1135,17 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
@@ -1134,42 +1155,68 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>34999.800000000003</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1186,32 +1233,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_自分用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A2568-B8AD-4914-B4C4-918CF88862D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AC188-5000-4B68-888E-C0BA24385504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -121,13 +121,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -235,38 +228,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>住所：640-8323</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>和歌山県和歌山市太田1丁目2番4-502号</t>
-    <rPh sb="0" eb="4">
-      <t>ワカヤマケン</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ワカヤマシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>経理管理費用</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -276,6 +237,21 @@
       <t>トウロクバンゴウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>請求額：</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税
+（10％）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -421,6 +397,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,42 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,84 +811,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="19">
         <f ca="1">TODAY()</f>
-        <v>45289</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>45324</v>
+      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <f>G36</f>
+        <v>34999.800000000003</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="F8" s="24" t="s">
-        <v>27</v>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -923,300 +908,265 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45320</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>45353</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14">
         <v>31818</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="7">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="7">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="7">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="7">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="7">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="14">
         <f>IF(F18="","",SUM(F18:H31))</f>
         <v>31818</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="A34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="F34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="14">
         <f>IF(G32="","",G32*0.1)</f>
         <v>3181.8</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="18">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="F36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="13">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>34999.800000000003</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="A37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
+  <mergeCells count="40">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1233,10 +1183,34 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>